--- a/data/extracted_data/rockets.xlsx
+++ b/data/extracted_data/rockets.xlsx
@@ -2925,9 +2925,7 @@
       <c r="E88" t="n">
         <v>0.8</v>
       </c>
-      <c r="F88" t="n">
-        <v>1</v>
-      </c>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
     </row>
@@ -9771,9 +9769,7 @@
       <c r="E323" t="n">
         <v>0.08699999999999999</v>
       </c>
-      <c r="F323" t="n">
-        <v>1</v>
-      </c>
+      <c r="F323" t="inlineStr"/>
       <c r="G323" t="inlineStr"/>
       <c r="H323" t="inlineStr"/>
     </row>
@@ -10435,9 +10431,7 @@
       <c r="E346" t="n">
         <v>9</v>
       </c>
-      <c r="F346" t="n">
-        <v>1</v>
-      </c>
+      <c r="F346" t="inlineStr"/>
       <c r="G346" t="inlineStr"/>
       <c r="H346" t="inlineStr"/>
     </row>
@@ -10461,9 +10455,7 @@
       <c r="E347" t="n">
         <v>13</v>
       </c>
-      <c r="F347" t="n">
-        <v>1</v>
-      </c>
+      <c r="F347" t="inlineStr"/>
       <c r="G347" t="inlineStr"/>
       <c r="H347" t="inlineStr"/>
     </row>
